--- a/data/trans_dic/P32E$casa_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -818,7 +818,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en su casa (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en su casa (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$casa_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$casa_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.658606399433069</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4508286282185932</v>
+        <v>0.4508286282185931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6239953999591284</v>
+        <v>0.6239953999591286</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4543016751149289</v>
+        <v>0.4592519302479585</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09289282396570338</v>
+        <v>0.08337918066617991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4515286534751924</v>
+        <v>0.4527206230841861</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8113530822633924</v>
+        <v>0.8101514186486407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8942921109452051</v>
+        <v>0.8461314388580237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.777305723827296</v>
+        <v>0.7614088611394898</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.3393789183966517</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4511689265734169</v>
+        <v>0.4511689265734168</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3615458024648611</v>
+        <v>0.3576822164615521</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1969024557123378</v>
+        <v>0.1888445742097887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3515830864032606</v>
+        <v>0.355562415627964</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5928115006404391</v>
+        <v>0.6018113686081265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5386039186996299</v>
+        <v>0.5113960267507498</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5502095468533703</v>
+        <v>0.5438472798283538</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3581346955892474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.483896358499631</v>
+        <v>0.4838963584996312</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4183719771635026</v>
+        <v>0.400236264678789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1759244339339598</v>
+        <v>0.1673670242455136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3280612548032422</v>
+        <v>0.3355275712948275</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7967400602807291</v>
+        <v>0.7902239300082766</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5741844451948658</v>
+        <v>0.5833893565014524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6334279777064244</v>
+        <v>0.6442492902763987</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.5368278326692187</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3577652267864776</v>
+        <v>0.3577652267864775</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4861160808274622</v>
+        <v>0.486116080827462</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.442128082640812</v>
+        <v>0.4453752389206246</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2405189449492317</v>
+        <v>0.2407208646571181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4081666392038807</v>
+        <v>0.410250641163488</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6257233209848004</v>
+        <v>0.6269946092234793</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4785169269913017</v>
+        <v>0.494737161357571</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5575460846944389</v>
+        <v>0.5615588324712776</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13249</v>
+        <v>13394</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15800</v>
+        <v>15842</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23662</v>
+        <v>23627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5213</v>
+        <v>4932</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27200</v>
+        <v>26644</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37796</v>
+        <v>37392</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5918</v>
+        <v>5676</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47323</v>
+        <v>47858</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61973</v>
+        <v>62914</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16189</v>
+        <v>15372</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74058</v>
+        <v>73201</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11262</v>
+        <v>10774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4851</v>
+        <v>4615</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17878</v>
+        <v>18285</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21447</v>
+        <v>21272</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15834</v>
+        <v>16088</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34519</v>
+        <v>35108</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>71016</v>
+        <v>71538</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15264</v>
+        <v>15277</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>91465</v>
+        <v>91932</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>100506</v>
+        <v>100710</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30368</v>
+        <v>31398</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>124939</v>
+        <v>125838</v>
       </c>
     </row>
     <row r="20">
